--- a/T3/P2/resultados_tarea3_p2.xlsx
+++ b/T3/P2/resultados_tarea3_p2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/dpgarces_uc_cl/Documents/Universidad/2025-2/Econo&amp;Med/Tareas_Economed/T3/P2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T3\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD37055FB25063250473088B35299F38D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8683A30-D770-415F-A957-B5CEB096CEB5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D051536-72E4-4A05-8C49-BD090ECC481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,15 +402,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -426,7 +427,7 @@
         <v>5649938.7314805808</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -434,7 +435,7 @@
         <v>2543.4987207291292</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -442,7 +443,7 @@
         <v>309.35944884766701</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
